--- a/BMAOI_Dbox-DataFrames/Calibrator_Master_TEMPLATE_312018.xlsx
+++ b/BMAOI_Dbox-DataFrames/Calibrator_Master_TEMPLATE_312018.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Phd_R_Ms\PhD_Modeling_DB_GIT\BMAOI_Dbox-DataFrames\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E363A-BBCD-40D0-8544-E25EE49B534E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="419">
   <si>
     <t>calibrator_ID</t>
   </si>
@@ -1183,6 +1184,99 @@
   </si>
   <si>
     <t>118680</t>
+  </si>
+  <si>
+    <t>Collected_on_1</t>
+  </si>
+  <si>
+    <t>Collected_on_2</t>
+  </si>
+  <si>
+    <t>Collected_on_3</t>
+  </si>
+  <si>
+    <t>Collected_on_4</t>
+  </si>
+  <si>
+    <t>Collected_on_5</t>
+  </si>
+  <si>
+    <t>Collected_on_6</t>
+  </si>
+  <si>
+    <t>Collected_on_7</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Collected_YR</t>
+  </si>
+  <si>
+    <t>12/2/2002</t>
+  </si>
+  <si>
+    <t>3/2/2005</t>
+  </si>
+  <si>
+    <t>7/11/2005</t>
+  </si>
+  <si>
+    <t>3/3/2008</t>
+  </si>
+  <si>
+    <t>3/11/2008</t>
+  </si>
+  <si>
+    <t>2/17/2009</t>
+  </si>
+  <si>
+    <t>7/27/2010</t>
+  </si>
+  <si>
+    <t>5/2/2011</t>
+  </si>
+  <si>
+    <t>4/16/2012</t>
+  </si>
+  <si>
+    <t>4/15/2014</t>
+  </si>
+  <si>
+    <t>6/17/2014</t>
+  </si>
+  <si>
+    <t>4/6/2015</t>
+  </si>
+  <si>
+    <t>3/15/2016</t>
+  </si>
+  <si>
+    <t>3/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/27/2017 </t>
+  </si>
+  <si>
+    <t>5/10/2017</t>
   </si>
 </sst>
 </file>
@@ -1584,116 +1678,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AJ1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <f>1+B1</f>
         <v>1</v>
       </c>
       <c r="D1" s="1">
+        <f t="shared" ref="D1:AJ1" si="0">1+C1</f>
         <v>2</v>
       </c>
       <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="T1" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U1" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="V1" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="W1" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="X1" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Y1" s="1">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Z1" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AA1" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AB1" s="1">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AC1" s="1">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AD1" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AE1" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AF1" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AG1" s="1">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AH1" s="1">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AI1" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AJ1" s="1">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -13465,6 +13598,514 @@
       </c>
       <c r="AJ108" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B109" t="s">
+        <v>403</v>
+      </c>
+      <c r="C109" t="s">
+        <v>403</v>
+      </c>
+      <c r="D109" t="s">
+        <v>403</v>
+      </c>
+      <c r="E109" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" t="s">
+        <v>404</v>
+      </c>
+      <c r="G109" t="s">
+        <v>405</v>
+      </c>
+      <c r="H109" t="s">
+        <v>405</v>
+      </c>
+      <c r="I109" t="s">
+        <v>406</v>
+      </c>
+      <c r="J109" t="s">
+        <v>406</v>
+      </c>
+      <c r="K109" t="s">
+        <v>407</v>
+      </c>
+      <c r="L109" t="s">
+        <v>408</v>
+      </c>
+      <c r="M109" t="s">
+        <v>408</v>
+      </c>
+      <c r="N109" t="s">
+        <v>408</v>
+      </c>
+      <c r="O109" t="s">
+        <v>408</v>
+      </c>
+      <c r="P109" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>409</v>
+      </c>
+      <c r="R109" t="s">
+        <v>409</v>
+      </c>
+      <c r="S109" t="s">
+        <v>410</v>
+      </c>
+      <c r="T109" t="s">
+        <v>411</v>
+      </c>
+      <c r="U109" t="s">
+        <v>411</v>
+      </c>
+      <c r="V109" t="s">
+        <v>412</v>
+      </c>
+      <c r="W109" t="s">
+        <v>413</v>
+      </c>
+      <c r="X109" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B110" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" t="s">
+        <v>395</v>
+      </c>
+      <c r="E110" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" t="s">
+        <v>396</v>
+      </c>
+      <c r="G110" t="s">
+        <v>395</v>
+      </c>
+      <c r="H110" t="s">
+        <v>395</v>
+      </c>
+      <c r="I110" t="s">
+        <v>395</v>
+      </c>
+      <c r="J110" t="s">
+        <v>395</v>
+      </c>
+      <c r="K110" t="s">
+        <v>397</v>
+      </c>
+      <c r="L110" t="s">
+        <v>397</v>
+      </c>
+      <c r="M110" t="s">
+        <v>397</v>
+      </c>
+      <c r="N110" t="s">
+        <v>397</v>
+      </c>
+      <c r="O110" t="s">
+        <v>397</v>
+      </c>
+      <c r="P110" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>397</v>
+      </c>
+      <c r="R110" t="s">
+        <v>397</v>
+      </c>
+      <c r="S110" t="s">
+        <v>395</v>
+      </c>
+      <c r="T110" t="s">
+        <v>395</v>
+      </c>
+      <c r="U110" t="s">
+        <v>395</v>
+      </c>
+      <c r="V110" t="s">
+        <v>397</v>
+      </c>
+      <c r="W110" t="s">
+        <v>397</v>
+      </c>
+      <c r="X110" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B111" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" t="s">
+        <v>397</v>
+      </c>
+      <c r="E111" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" t="s">
+        <v>398</v>
+      </c>
+      <c r="G111" t="s">
+        <v>397</v>
+      </c>
+      <c r="H111" t="s">
+        <v>397</v>
+      </c>
+      <c r="I111" t="s">
+        <v>397</v>
+      </c>
+      <c r="J111" t="s">
+        <v>397</v>
+      </c>
+      <c r="K111" t="s">
+        <v>396</v>
+      </c>
+      <c r="L111" t="s">
+        <v>396</v>
+      </c>
+      <c r="M111" t="s">
+        <v>396</v>
+      </c>
+      <c r="N111" t="s">
+        <v>396</v>
+      </c>
+      <c r="O111" t="s">
+        <v>396</v>
+      </c>
+      <c r="P111" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>396</v>
+      </c>
+      <c r="R111" t="s">
+        <v>396</v>
+      </c>
+      <c r="S111" t="s">
+        <v>397</v>
+      </c>
+      <c r="T111" t="s">
+        <v>397</v>
+      </c>
+      <c r="U111" t="s">
+        <v>397</v>
+      </c>
+      <c r="V111" t="s">
+        <v>396</v>
+      </c>
+      <c r="W111" t="s">
+        <v>396</v>
+      </c>
+      <c r="X111" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" t="s">
+        <v>396</v>
+      </c>
+      <c r="E112" t="s">
+        <v>399</v>
+      </c>
+      <c r="F112" t="s">
+        <v>399</v>
+      </c>
+      <c r="G112" t="s">
+        <v>396</v>
+      </c>
+      <c r="H112" t="s">
+        <v>396</v>
+      </c>
+      <c r="I112" t="s">
+        <v>396</v>
+      </c>
+      <c r="J112" t="s">
+        <v>396</v>
+      </c>
+      <c r="K112" t="s">
+        <v>398</v>
+      </c>
+      <c r="L112" t="s">
+        <v>398</v>
+      </c>
+      <c r="M112" t="s">
+        <v>398</v>
+      </c>
+      <c r="N112" t="s">
+        <v>398</v>
+      </c>
+      <c r="O112" t="s">
+        <v>398</v>
+      </c>
+      <c r="P112" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>398</v>
+      </c>
+      <c r="R112" t="s">
+        <v>398</v>
+      </c>
+      <c r="S112" t="s">
+        <v>396</v>
+      </c>
+      <c r="T112" t="s">
+        <v>396</v>
+      </c>
+      <c r="U112" t="s">
+        <v>396</v>
+      </c>
+      <c r="V112" t="s">
+        <v>398</v>
+      </c>
+      <c r="W112" t="s">
+        <v>398</v>
+      </c>
+      <c r="X112" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="S113" t="s">
+        <v>398</v>
+      </c>
+      <c r="W113" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S114" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
